--- a/arrival2_arrival_summary_statistics.xlsx
+++ b/arrival2_arrival_summary_statistics.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05224A40-9A40-4859-88C2-F3280867A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D76AF2-625B-4821-A079-19FEEC771E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C12DDAC-722B-415E-92D2-B3D36F998021}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8C12DDAC-722B-415E-92D2-B3D36F998021}"/>
   </bookViews>
   <sheets>
     <sheet name="arrival2_arrival_summary_statis" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>count</t>
   </si>
@@ -39,12 +40,54 @@
   <si>
     <t>date</t>
   </si>
+  <si>
+    <t>Night and shoulder</t>
+  </si>
+  <si>
+    <t>Month total</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>regular departures</t>
+  </si>
+  <si>
+    <t>night and shoulder departures</t>
+  </si>
+  <si>
+    <t>Night and shoulder arrivals</t>
+  </si>
+  <si>
+    <t>regular arrivals</t>
+  </si>
+  <si>
+    <t>total arrivals</t>
+  </si>
+  <si>
+    <t>night combo flights</t>
+  </si>
+  <si>
+    <t>regular combo flights</t>
+  </si>
+  <si>
+    <t>total combo flights</t>
+  </si>
+  <si>
+    <t>combined output total</t>
+  </si>
+  <si>
+    <t>combined output shoulder</t>
+  </si>
+  <si>
+    <t>combined output night</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +221,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -361,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -485,6 +533,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -530,13 +587,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DA0F8B-7278-4A12-8699-7E24FF8DB264}">
-  <dimension ref="A1:F367"/>
+  <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E49"/>
+    <sheetView topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="I368" sqref="I368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +972,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,8 +991,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>81</v>
       </c>
@@ -942,8 +1017,12 @@
       <c r="F2" s="2">
         <v>45047</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(D2:E2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -962,8 +1041,12 @@
       <c r="F3" s="2">
         <v>45048</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G32" si="0">SUM(D3:E3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>122</v>
       </c>
@@ -982,8 +1065,12 @@
       <c r="F4" s="2">
         <v>45049</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>124</v>
       </c>
@@ -1002,8 +1089,12 @@
       <c r="F5" s="2">
         <v>45050</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>124</v>
       </c>
@@ -1022,8 +1113,12 @@
       <c r="F6" s="2">
         <v>45051</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>89</v>
       </c>
@@ -1042,8 +1137,12 @@
       <c r="F7" s="5">
         <v>45052</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1062,8 +1161,12 @@
       <c r="F8" s="2">
         <v>45053</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>88</v>
       </c>
@@ -1082,8 +1185,12 @@
       <c r="F9" s="2">
         <v>45054</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>116</v>
       </c>
@@ -1102,8 +1209,12 @@
       <c r="F10" s="2">
         <v>45055</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>115</v>
       </c>
@@ -1122,8 +1233,12 @@
       <c r="F11" s="2">
         <v>45056</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>126</v>
       </c>
@@ -1142,8 +1257,12 @@
       <c r="F12" s="2">
         <v>45057</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1162,8 +1281,12 @@
       <c r="F13" s="2">
         <v>45058</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>100</v>
       </c>
@@ -1182,8 +1305,12 @@
       <c r="F14" s="5">
         <v>45059</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1202,8 +1329,12 @@
       <c r="F15" s="2">
         <v>45060</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>110</v>
       </c>
@@ -1222,8 +1353,12 @@
       <c r="F16" s="2">
         <v>45061</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>107</v>
       </c>
@@ -1242,8 +1377,12 @@
       <c r="F17" s="2">
         <v>45062</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>115</v>
       </c>
@@ -1262,8 +1401,12 @@
       <c r="F18" s="2">
         <v>45063</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>120</v>
       </c>
@@ -1282,8 +1425,12 @@
       <c r="F19" s="2">
         <v>45064</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>124</v>
       </c>
@@ -1302,8 +1449,12 @@
       <c r="F20" s="2">
         <v>45065</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>102</v>
       </c>
@@ -1322,8 +1473,12 @@
       <c r="F21" s="5">
         <v>45066</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>109</v>
       </c>
@@ -1342,8 +1497,12 @@
       <c r="F22" s="2">
         <v>45067</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>120</v>
       </c>
@@ -1362,8 +1521,12 @@
       <c r="F23" s="2">
         <v>45068</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>109</v>
       </c>
@@ -1382,8 +1545,12 @@
       <c r="F24" s="2">
         <v>45069</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1402,8 +1569,12 @@
       <c r="F25" s="2">
         <v>45070</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>123</v>
       </c>
@@ -1422,8 +1593,12 @@
       <c r="F26" s="2">
         <v>45071</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>112</v>
       </c>
@@ -1442,8 +1617,12 @@
       <c r="F27" s="2">
         <v>45072</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>101</v>
       </c>
@@ -1462,8 +1641,12 @@
       <c r="F28" s="5">
         <v>45073</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>118</v>
       </c>
@@ -1482,8 +1665,12 @@
       <c r="F29" s="2">
         <v>45074</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>112</v>
       </c>
@@ -1502,8 +1689,12 @@
       <c r="F30" s="2">
         <v>45075</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>111</v>
       </c>
@@ -1522,8 +1713,12 @@
       <c r="F31" s="2">
         <v>45076</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -1542,8 +1737,20 @@
       <c r="F32" s="2">
         <v>45077</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>SUM(D32:E32)</f>
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <f>SUM(G2:G32)</f>
+        <v>565</v>
+      </c>
+      <c r="I32">
+        <f>SUM(A2:A32)</f>
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>113</v>
       </c>
@@ -1562,8 +1769,12 @@
       <c r="F33" s="2">
         <v>45078</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" ref="G33:G96" si="1">SUM(D33:E33)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>120</v>
       </c>
@@ -1582,8 +1793,12 @@
       <c r="F34" s="2">
         <v>45079</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>89</v>
       </c>
@@ -1602,8 +1817,12 @@
       <c r="F35" s="5">
         <v>45080</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>112</v>
       </c>
@@ -1622,8 +1841,12 @@
       <c r="F36" s="2">
         <v>45081</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>117</v>
       </c>
@@ -1642,8 +1865,12 @@
       <c r="F37" s="2">
         <v>45082</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>94</v>
       </c>
@@ -1662,8 +1889,12 @@
       <c r="F38" s="2">
         <v>45083</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>125</v>
       </c>
@@ -1682,8 +1913,12 @@
       <c r="F39" s="2">
         <v>45084</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>124</v>
       </c>
@@ -1702,8 +1937,12 @@
       <c r="F40" s="2">
         <v>45085</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>112</v>
       </c>
@@ -1722,8 +1961,12 @@
       <c r="F41" s="2">
         <v>45086</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>104</v>
       </c>
@@ -1742,8 +1985,12 @@
       <c r="F42" s="5">
         <v>45087</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -1762,8 +2009,12 @@
       <c r="F43" s="2">
         <v>45088</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>92</v>
       </c>
@@ -1782,8 +2033,12 @@
       <c r="F44" s="2">
         <v>45089</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>99</v>
       </c>
@@ -1802,8 +2057,12 @@
       <c r="F45" s="2">
         <v>45090</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>118</v>
       </c>
@@ -1822,8 +2081,12 @@
       <c r="F46" s="2">
         <v>45091</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>118</v>
       </c>
@@ -1842,8 +2105,12 @@
       <c r="F47" s="2">
         <v>45092</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>122</v>
       </c>
@@ -1862,8 +2129,12 @@
       <c r="F48" s="2">
         <v>45093</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>88</v>
       </c>
@@ -1882,8 +2153,12 @@
       <c r="F49" s="5">
         <v>45094</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96</v>
       </c>
@@ -1902,8 +2177,12 @@
       <c r="F50" s="2">
         <v>45095</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>98</v>
       </c>
@@ -1922,8 +2201,12 @@
       <c r="F51" s="2">
         <v>45096</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>92</v>
       </c>
@@ -1942,8 +2225,12 @@
       <c r="F52" s="2">
         <v>45097</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>120</v>
       </c>
@@ -1962,8 +2249,12 @@
       <c r="F53" s="2">
         <v>45098</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>104</v>
       </c>
@@ -1982,8 +2273,12 @@
       <c r="F54" s="2">
         <v>45099</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>125</v>
       </c>
@@ -2002,8 +2297,12 @@
       <c r="F55" s="2">
         <v>45100</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>98</v>
       </c>
@@ -2022,8 +2321,12 @@
       <c r="F56" s="5">
         <v>45101</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>115</v>
       </c>
@@ -2042,8 +2345,12 @@
       <c r="F57" s="2">
         <v>45102</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>110</v>
       </c>
@@ -2062,8 +2369,12 @@
       <c r="F58" s="2">
         <v>45103</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>120</v>
       </c>
@@ -2082,8 +2393,12 @@
       <c r="F59" s="2">
         <v>45104</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>113</v>
       </c>
@@ -2102,8 +2417,12 @@
       <c r="F60" s="2">
         <v>45105</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>121</v>
       </c>
@@ -2122,8 +2441,12 @@
       <c r="F61" s="2">
         <v>45106</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>106</v>
       </c>
@@ -2142,8 +2465,20 @@
       <c r="F62" s="2">
         <v>45107</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <f>SUM(G33:G62)</f>
+        <v>518</v>
+      </c>
+      <c r="I62">
+        <f>SUM(A33:A62)</f>
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>103</v>
       </c>
@@ -2162,8 +2497,12 @@
       <c r="F63" s="5">
         <v>45108</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>110</v>
       </c>
@@ -2182,8 +2521,12 @@
       <c r="F64" s="2">
         <v>45109</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>110</v>
       </c>
@@ -2202,8 +2545,12 @@
       <c r="F65" s="2">
         <v>45110</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>115</v>
       </c>
@@ -2222,8 +2569,12 @@
       <c r="F66" s="2">
         <v>45111</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>112</v>
       </c>
@@ -2242,8 +2593,12 @@
       <c r="F67" s="2">
         <v>45112</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>117</v>
       </c>
@@ -2262,8 +2617,12 @@
       <c r="F68" s="2">
         <v>45113</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>117</v>
       </c>
@@ -2282,8 +2641,12 @@
       <c r="F69" s="2">
         <v>45114</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>88</v>
       </c>
@@ -2302,8 +2665,12 @@
       <c r="F70" s="2">
         <v>45115</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>95</v>
       </c>
@@ -2322,8 +2689,12 @@
       <c r="F71" s="2">
         <v>45116</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>99</v>
       </c>
@@ -2342,8 +2713,12 @@
       <c r="F72" s="2">
         <v>45117</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>102</v>
       </c>
@@ -2362,8 +2737,12 @@
       <c r="F73" s="2">
         <v>45118</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>102</v>
       </c>
@@ -2382,8 +2761,12 @@
       <c r="F74" s="2">
         <v>45119</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>109</v>
       </c>
@@ -2402,8 +2785,12 @@
       <c r="F75" s="2">
         <v>45120</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -2422,8 +2809,12 @@
       <c r="F76" s="2">
         <v>45121</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>81</v>
       </c>
@@ -2442,8 +2833,12 @@
       <c r="F77" s="2">
         <v>45122</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>109</v>
       </c>
@@ -2462,8 +2857,12 @@
       <c r="F78" s="2">
         <v>45123</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>114</v>
       </c>
@@ -2482,8 +2881,12 @@
       <c r="F79" s="2">
         <v>45124</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>114</v>
       </c>
@@ -2502,8 +2905,12 @@
       <c r="F80" s="2">
         <v>45125</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>126</v>
       </c>
@@ -2522,8 +2929,12 @@
       <c r="F81" s="2">
         <v>45126</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>139</v>
       </c>
@@ -2542,8 +2953,12 @@
       <c r="F82" s="2">
         <v>45127</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>132</v>
       </c>
@@ -2562,8 +2977,12 @@
       <c r="F83" s="2">
         <v>45128</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>104</v>
       </c>
@@ -2582,8 +3001,12 @@
       <c r="F84" s="2">
         <v>45129</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>120</v>
       </c>
@@ -2602,8 +3025,12 @@
       <c r="F85" s="2">
         <v>45130</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>107</v>
       </c>
@@ -2622,8 +3049,12 @@
       <c r="F86" s="2">
         <v>45131</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>117</v>
       </c>
@@ -2642,8 +3073,12 @@
       <c r="F87" s="2">
         <v>45132</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>104</v>
       </c>
@@ -2662,8 +3097,12 @@
       <c r="F88" s="2">
         <v>45133</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>131</v>
       </c>
@@ -2682,8 +3121,12 @@
       <c r="F89" s="2">
         <v>45134</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>107</v>
       </c>
@@ -2702,8 +3145,12 @@
       <c r="F90" s="2">
         <v>45135</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>99</v>
       </c>
@@ -2722,8 +3169,12 @@
       <c r="F91" s="2">
         <v>45136</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>117</v>
       </c>
@@ -2742,8 +3193,12 @@
       <c r="F92" s="2">
         <v>45137</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>109</v>
       </c>
@@ -2762,8 +3217,20 @@
       <c r="F93" s="2">
         <v>45138</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <f>SUM(G63:G93)</f>
+        <v>554</v>
+      </c>
+      <c r="I93">
+        <f>SUM(A63:A93)</f>
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>127</v>
       </c>
@@ -2782,8 +3249,12 @@
       <c r="F94" s="2">
         <v>45139</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>107</v>
       </c>
@@ -2802,8 +3273,12 @@
       <c r="F95" s="2">
         <v>45140</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>132</v>
       </c>
@@ -2822,8 +3297,12 @@
       <c r="F96" s="2">
         <v>45141</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>130</v>
       </c>
@@ -2842,8 +3321,12 @@
       <c r="F97" s="2">
         <v>45142</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f t="shared" ref="G97:G160" si="2">SUM(D97:E97)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>103</v>
       </c>
@@ -2862,8 +3345,12 @@
       <c r="F98" s="2">
         <v>45143</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>123</v>
       </c>
@@ -2882,8 +3369,12 @@
       <c r="F99" s="2">
         <v>45144</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>122</v>
       </c>
@@ -2902,8 +3393,12 @@
       <c r="F100" s="2">
         <v>45145</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>123</v>
       </c>
@@ -2922,8 +3417,12 @@
       <c r="F101" s="2">
         <v>45146</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>127</v>
       </c>
@@ -2942,8 +3441,12 @@
       <c r="F102" s="2">
         <v>45147</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>134</v>
       </c>
@@ -2962,8 +3465,12 @@
       <c r="F103" s="2">
         <v>45148</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>128</v>
       </c>
@@ -2982,8 +3489,12 @@
       <c r="F104" s="2">
         <v>45149</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>99</v>
       </c>
@@ -3002,8 +3513,12 @@
       <c r="F105" s="2">
         <v>45150</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>120</v>
       </c>
@@ -3022,8 +3537,12 @@
       <c r="F106" s="2">
         <v>45151</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>126</v>
       </c>
@@ -3042,8 +3561,12 @@
       <c r="F107" s="2">
         <v>45152</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>117</v>
       </c>
@@ -3062,8 +3585,12 @@
       <c r="F108" s="2">
         <v>45153</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>116</v>
       </c>
@@ -3082,8 +3609,12 @@
       <c r="F109" s="2">
         <v>45154</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>119</v>
       </c>
@@ -3102,8 +3633,12 @@
       <c r="F110" s="2">
         <v>45155</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>101</v>
       </c>
@@ -3122,8 +3657,12 @@
       <c r="F111" s="2">
         <v>45156</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3142,8 +3681,12 @@
       <c r="F112" s="2">
         <v>45157</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>125</v>
       </c>
@@ -3162,8 +3705,12 @@
       <c r="F113" s="2">
         <v>45158</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>115</v>
       </c>
@@ -3182,8 +3729,12 @@
       <c r="F114" s="2">
         <v>45159</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>124</v>
       </c>
@@ -3202,8 +3753,12 @@
       <c r="F115" s="2">
         <v>45160</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>131</v>
       </c>
@@ -3222,8 +3777,12 @@
       <c r="F116" s="2">
         <v>45161</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>99</v>
       </c>
@@ -3242,8 +3801,12 @@
       <c r="F117" s="2">
         <v>45162</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>96</v>
       </c>
@@ -3262,8 +3825,12 @@
       <c r="F118" s="2">
         <v>45163</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>95</v>
       </c>
@@ -3282,8 +3849,12 @@
       <c r="F119" s="2">
         <v>45164</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>90</v>
       </c>
@@ -3302,8 +3873,12 @@
       <c r="F120" s="2">
         <v>45165</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>53</v>
       </c>
@@ -3322,8 +3897,12 @@
       <c r="F121" s="2">
         <v>45166</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>85</v>
       </c>
@@ -3342,8 +3921,12 @@
       <c r="F122" s="2">
         <v>45167</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>120</v>
       </c>
@@ -3362,8 +3945,12 @@
       <c r="F123" s="2">
         <v>45168</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -3382,8 +3969,20 @@
       <c r="F124" s="2">
         <v>45169</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H124">
+        <f>SUM(G94:G124)</f>
+        <v>592</v>
+      </c>
+      <c r="I124">
+        <f>SUM(A94:A124)</f>
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>127</v>
       </c>
@@ -3402,8 +4001,12 @@
       <c r="F125" s="2">
         <v>45170</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>102</v>
       </c>
@@ -3422,8 +4025,12 @@
       <c r="F126" s="2">
         <v>45171</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>118</v>
       </c>
@@ -3442,8 +4049,12 @@
       <c r="F127" s="2">
         <v>45172</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>131</v>
       </c>
@@ -3462,8 +4073,12 @@
       <c r="F128" s="2">
         <v>45173</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>116</v>
       </c>
@@ -3482,8 +4097,12 @@
       <c r="F129" s="2">
         <v>45174</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>133</v>
       </c>
@@ -3502,8 +4121,12 @@
       <c r="F130" s="2">
         <v>45175</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -3522,8 +4145,12 @@
       <c r="F131" s="2">
         <v>45176</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>143</v>
       </c>
@@ -3542,8 +4169,12 @@
       <c r="F132" s="2">
         <v>45177</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>94</v>
       </c>
@@ -3562,8 +4193,12 @@
       <c r="F133" s="2">
         <v>45178</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>105</v>
       </c>
@@ -3582,8 +4217,12 @@
       <c r="F134" s="2">
         <v>45179</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>130</v>
       </c>
@@ -3602,8 +4241,12 @@
       <c r="F135" s="2">
         <v>45180</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>124</v>
       </c>
@@ -3622,8 +4265,12 @@
       <c r="F136" s="2">
         <v>45181</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>131</v>
       </c>
@@ -3642,8 +4289,12 @@
       <c r="F137" s="2">
         <v>45182</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3662,8 +4313,12 @@
       <c r="F138" s="2">
         <v>45183</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>130</v>
       </c>
@@ -3682,8 +4337,12 @@
       <c r="F139" s="2">
         <v>45184</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>105</v>
       </c>
@@ -3702,8 +4361,12 @@
       <c r="F140" s="2">
         <v>45185</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>81</v>
       </c>
@@ -3722,8 +4385,12 @@
       <c r="F141" s="2">
         <v>45186</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>109</v>
       </c>
@@ -3742,8 +4409,12 @@
       <c r="F142" s="2">
         <v>45187</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>130</v>
       </c>
@@ -3762,8 +4433,12 @@
       <c r="F143" s="2">
         <v>45188</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>131</v>
       </c>
@@ -3782,8 +4457,12 @@
       <c r="F144" s="2">
         <v>45189</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>133</v>
       </c>
@@ -3802,8 +4481,12 @@
       <c r="F145" s="2">
         <v>45190</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>133</v>
       </c>
@@ -3822,8 +4505,12 @@
       <c r="F146" s="2">
         <v>45191</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>100</v>
       </c>
@@ -3842,8 +4529,12 @@
       <c r="F147" s="2">
         <v>45192</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>125</v>
       </c>
@@ -3862,8 +4553,12 @@
       <c r="F148" s="2">
         <v>45193</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>138</v>
       </c>
@@ -3882,8 +4577,12 @@
       <c r="F149" s="2">
         <v>45194</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>134</v>
       </c>
@@ -3902,8 +4601,12 @@
       <c r="F150" s="2">
         <v>45195</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>123</v>
       </c>
@@ -3922,8 +4625,12 @@
       <c r="F151" s="2">
         <v>45196</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>137</v>
       </c>
@@ -3942,8 +4649,12 @@
       <c r="F152" s="2">
         <v>45197</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>142</v>
       </c>
@@ -3962,8 +4673,12 @@
       <c r="F153" s="2">
         <v>45198</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>118</v>
       </c>
@@ -3982,8 +4697,20 @@
       <c r="F154" s="2">
         <v>45199</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H154">
+        <f>SUM(G125:G154)</f>
+        <v>602</v>
+      </c>
+      <c r="I154">
+        <f>SUM(A125:A154)</f>
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>137</v>
       </c>
@@ -4002,8 +4729,12 @@
       <c r="F155" s="2">
         <v>45200</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>126</v>
       </c>
@@ -4022,8 +4753,12 @@
       <c r="F156" s="2">
         <v>45201</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>113</v>
       </c>
@@ -4042,8 +4777,12 @@
       <c r="F157" s="2">
         <v>45202</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>130</v>
       </c>
@@ -4062,8 +4801,12 @@
       <c r="F158" s="2">
         <v>45203</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>139</v>
       </c>
@@ -4082,8 +4825,12 @@
       <c r="F159" s="2">
         <v>45204</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>133</v>
       </c>
@@ -4102,8 +4849,12 @@
       <c r="F160" s="2">
         <v>45205</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>109</v>
       </c>
@@ -4122,8 +4873,12 @@
       <c r="F161" s="2">
         <v>45206</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <f t="shared" ref="G161:G224" si="3">SUM(D161:E161)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>132</v>
       </c>
@@ -4142,8 +4897,12 @@
       <c r="F162" s="2">
         <v>45207</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>125</v>
       </c>
@@ -4162,8 +4921,12 @@
       <c r="F163" s="2">
         <v>45208</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>125</v>
       </c>
@@ -4182,8 +4945,12 @@
       <c r="F164" s="2">
         <v>45209</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>133</v>
       </c>
@@ -4202,8 +4969,12 @@
       <c r="F165" s="2">
         <v>45210</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>132</v>
       </c>
@@ -4222,8 +4993,12 @@
       <c r="F166" s="2">
         <v>45211</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>100</v>
       </c>
@@ -4242,8 +5017,12 @@
       <c r="F167" s="2">
         <v>45212</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>104</v>
       </c>
@@ -4262,8 +5041,12 @@
       <c r="F168" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>124</v>
       </c>
@@ -4282,8 +5065,12 @@
       <c r="F169" s="2">
         <v>45214</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>112</v>
       </c>
@@ -4302,8 +5089,12 @@
       <c r="F170" s="2">
         <v>45215</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>119</v>
       </c>
@@ -4322,8 +5113,12 @@
       <c r="F171" s="2">
         <v>45216</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>118</v>
       </c>
@@ -4342,8 +5137,12 @@
       <c r="F172" s="2">
         <v>45217</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>125</v>
       </c>
@@ -4362,8 +5161,12 @@
       <c r="F173" s="2">
         <v>45218</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>113</v>
       </c>
@@ -4382,8 +5185,12 @@
       <c r="F174" s="2">
         <v>45219</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>104</v>
       </c>
@@ -4402,8 +5209,12 @@
       <c r="F175" s="2">
         <v>45220</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>125</v>
       </c>
@@ -4422,8 +5233,12 @@
       <c r="F176" s="2">
         <v>45221</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>118</v>
       </c>
@@ -4442,8 +5257,12 @@
       <c r="F177" s="2">
         <v>45222</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>127</v>
       </c>
@@ -4462,8 +5281,12 @@
       <c r="F178" s="2">
         <v>45223</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>120</v>
       </c>
@@ -4482,8 +5305,12 @@
       <c r="F179" s="2">
         <v>45224</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>111</v>
       </c>
@@ -4502,8 +5329,12 @@
       <c r="F180" s="2">
         <v>45225</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>118</v>
       </c>
@@ -4522,8 +5353,12 @@
       <c r="F181" s="2">
         <v>45226</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>62</v>
       </c>
@@ -4542,8 +5377,12 @@
       <c r="F182" s="2">
         <v>45227</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>112</v>
       </c>
@@ -4562,8 +5401,12 @@
       <c r="F183" s="2">
         <v>45228</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>137</v>
       </c>
@@ -4582,8 +5425,12 @@
       <c r="F184" s="2">
         <v>45229</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>112</v>
       </c>
@@ -4602,8 +5449,20 @@
       <c r="F185" s="2">
         <v>45230</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H185">
+        <f>SUM(G155:G185)</f>
+        <v>569</v>
+      </c>
+      <c r="I185">
+        <f>SUM(A155:A185)</f>
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>106</v>
       </c>
@@ -4622,8 +5481,12 @@
       <c r="F186" s="2">
         <v>45231</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>79</v>
       </c>
@@ -4642,8 +5505,12 @@
       <c r="F187" s="2">
         <v>45232</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>113</v>
       </c>
@@ -4662,8 +5529,12 @@
       <c r="F188" s="2">
         <v>45233</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>91</v>
       </c>
@@ -4682,8 +5553,12 @@
       <c r="F189" s="2">
         <v>45234</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>100</v>
       </c>
@@ -4702,8 +5577,12 @@
       <c r="F190" s="2">
         <v>45235</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>116</v>
       </c>
@@ -4722,8 +5601,12 @@
       <c r="F191" s="2">
         <v>45236</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>70</v>
       </c>
@@ -4742,8 +5625,12 @@
       <c r="F192" s="2">
         <v>45237</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>78</v>
       </c>
@@ -4762,8 +5649,12 @@
       <c r="F193" s="2">
         <v>45238</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>91</v>
       </c>
@@ -4782,8 +5673,12 @@
       <c r="F194" s="2">
         <v>45239</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>102</v>
       </c>
@@ -4802,8 +5697,12 @@
       <c r="F195" s="2">
         <v>45240</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>77</v>
       </c>
@@ -4822,8 +5721,12 @@
       <c r="F196" s="2">
         <v>45241</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>90</v>
       </c>
@@ -4842,8 +5745,12 @@
       <c r="F197" s="2">
         <v>45242</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>92</v>
       </c>
@@ -4862,8 +5769,12 @@
       <c r="F198" s="2">
         <v>45243</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>65</v>
       </c>
@@ -4882,8 +5793,12 @@
       <c r="F199" s="2">
         <v>45244</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>70</v>
       </c>
@@ -4902,8 +5817,12 @@
       <c r="F200" s="2">
         <v>45245</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>86</v>
       </c>
@@ -4922,8 +5841,12 @@
       <c r="F201" s="2">
         <v>45246</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>104</v>
       </c>
@@ -4942,8 +5865,12 @@
       <c r="F202" s="2">
         <v>45247</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>74</v>
       </c>
@@ -4962,8 +5889,12 @@
       <c r="F203" s="2">
         <v>45248</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>79</v>
       </c>
@@ -4982,8 +5913,12 @@
       <c r="F204" s="2">
         <v>45249</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>84</v>
       </c>
@@ -5002,8 +5937,12 @@
       <c r="F205" s="2">
         <v>45250</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>64</v>
       </c>
@@ -5022,8 +5961,12 @@
       <c r="F206" s="2">
         <v>45251</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>67</v>
       </c>
@@ -5042,8 +5985,12 @@
       <c r="F207" s="2">
         <v>45252</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>89</v>
       </c>
@@ -5062,8 +6009,12 @@
       <c r="F208" s="2">
         <v>45253</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>103</v>
       </c>
@@ -5082,8 +6033,12 @@
       <c r="F209" s="2">
         <v>45254</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>76</v>
       </c>
@@ -5102,8 +6057,12 @@
       <c r="F210" s="2">
         <v>45255</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>84</v>
       </c>
@@ -5122,8 +6081,12 @@
       <c r="F211" s="2">
         <v>45256</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>108</v>
       </c>
@@ -5142,8 +6105,12 @@
       <c r="F212" s="2">
         <v>45257</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>74</v>
       </c>
@@ -5162,8 +6129,12 @@
       <c r="F213" s="2">
         <v>45258</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>75</v>
       </c>
@@ -5182,8 +6153,12 @@
       <c r="F214" s="2">
         <v>45259</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>76</v>
       </c>
@@ -5202,8 +6177,20 @@
       <c r="F215" s="2">
         <v>45260</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <f>SUM(G186:G215)</f>
+        <v>147</v>
+      </c>
+      <c r="I215">
+        <f>SUM(A186:A215)</f>
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>86</v>
       </c>
@@ -5222,8 +6209,12 @@
       <c r="F216" s="2">
         <v>45261</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>54</v>
       </c>
@@ -5242,8 +6233,12 @@
       <c r="F217" s="2">
         <v>45262</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>78</v>
       </c>
@@ -5262,8 +6257,12 @@
       <c r="F218" s="2">
         <v>45263</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>100</v>
       </c>
@@ -5282,8 +6281,12 @@
       <c r="F219" s="2">
         <v>45264</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>80</v>
       </c>
@@ -5302,8 +6305,12 @@
       <c r="F220" s="2">
         <v>45265</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>78</v>
       </c>
@@ -5322,8 +6329,12 @@
       <c r="F221" s="2">
         <v>45266</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>63</v>
       </c>
@@ -5342,8 +6353,12 @@
       <c r="F222" s="2">
         <v>45267</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>103</v>
       </c>
@@ -5362,8 +6377,12 @@
       <c r="F223" s="2">
         <v>45268</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>77</v>
       </c>
@@ -5382,8 +6401,12 @@
       <c r="F224" s="2">
         <v>45269</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>92</v>
       </c>
@@ -5402,8 +6425,12 @@
       <c r="F225" s="2">
         <v>45270</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <f t="shared" ref="G225:G288" si="4">SUM(D225:E225)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>105</v>
       </c>
@@ -5422,8 +6449,12 @@
       <c r="F226" s="2">
         <v>45271</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>83</v>
       </c>
@@ -5442,8 +6473,12 @@
       <c r="F227" s="2">
         <v>45272</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>78</v>
       </c>
@@ -5462,8 +6497,12 @@
       <c r="F228" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>98</v>
       </c>
@@ -5482,8 +6521,12 @@
       <c r="F229" s="2">
         <v>45274</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>114</v>
       </c>
@@ -5502,8 +6545,12 @@
       <c r="F230" s="2">
         <v>45275</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>93</v>
       </c>
@@ -5522,8 +6569,12 @@
       <c r="F231" s="2">
         <v>45276</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>106</v>
       </c>
@@ -5542,8 +6593,12 @@
       <c r="F232" s="2">
         <v>45277</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>110</v>
       </c>
@@ -5562,8 +6617,12 @@
       <c r="F233" s="2">
         <v>45278</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>100</v>
       </c>
@@ -5582,8 +6641,12 @@
       <c r="F234" s="2">
         <v>45279</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>95</v>
       </c>
@@ -5602,8 +6665,12 @@
       <c r="F235" s="2">
         <v>45280</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>78</v>
       </c>
@@ -5622,8 +6689,12 @@
       <c r="F236" s="2">
         <v>45281</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>96</v>
       </c>
@@ -5642,8 +6713,12 @@
       <c r="F237" s="2">
         <v>45282</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>75</v>
       </c>
@@ -5662,8 +6737,12 @@
       <c r="F238" s="2">
         <v>45283</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>70</v>
       </c>
@@ -5682,8 +6761,12 @@
       <c r="F239" s="2">
         <v>45284</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>27</v>
       </c>
@@ -5702,8 +6785,12 @@
       <c r="F240" s="2">
         <v>45285</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>98</v>
       </c>
@@ -5722,8 +6809,12 @@
       <c r="F241" s="2">
         <v>45286</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>81</v>
       </c>
@@ -5742,8 +6833,12 @@
       <c r="F242" s="2">
         <v>45287</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>94</v>
       </c>
@@ -5762,8 +6857,12 @@
       <c r="F243" s="2">
         <v>45288</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>108</v>
       </c>
@@ -5782,8 +6881,12 @@
       <c r="F244" s="2">
         <v>45289</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>95</v>
       </c>
@@ -5802,8 +6905,12 @@
       <c r="F245" s="2">
         <v>45290</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>101</v>
       </c>
@@ -5822,8 +6929,20 @@
       <c r="F246" s="2">
         <v>45291</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H246">
+        <f>SUM(G216:G246)</f>
+        <v>176</v>
+      </c>
+      <c r="I246">
+        <f>SUM(A216:A246)</f>
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>113</v>
       </c>
@@ -5842,8 +6961,12 @@
       <c r="F247" s="2">
         <v>45292</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>97</v>
       </c>
@@ -5862,8 +6985,12 @@
       <c r="F248" s="2">
         <v>45293</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>93</v>
       </c>
@@ -5882,8 +7009,12 @@
       <c r="F249" s="2">
         <v>45294</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>98</v>
       </c>
@@ -5902,8 +7033,12 @@
       <c r="F250" s="2">
         <v>45295</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>105</v>
       </c>
@@ -5922,8 +7057,12 @@
       <c r="F251" s="2">
         <v>45296</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>90</v>
       </c>
@@ -5942,8 +7081,12 @@
       <c r="F252" s="2">
         <v>45297</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>93</v>
       </c>
@@ -5962,8 +7105,12 @@
       <c r="F253" s="2">
         <v>45298</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>100</v>
       </c>
@@ -5982,8 +7129,12 @@
       <c r="F254" s="2">
         <v>45299</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>61</v>
       </c>
@@ -6002,8 +7153,12 @@
       <c r="F255" s="2">
         <v>45300</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>53</v>
       </c>
@@ -6022,8 +7177,12 @@
       <c r="F256" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>74</v>
       </c>
@@ -6042,8 +7201,12 @@
       <c r="F257" s="2">
         <v>45302</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>97</v>
       </c>
@@ -6062,8 +7225,12 @@
       <c r="F258" s="2">
         <v>45303</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>74</v>
       </c>
@@ -6082,8 +7249,12 @@
       <c r="F259" s="2">
         <v>45304</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>87</v>
       </c>
@@ -6102,8 +7273,12 @@
       <c r="F260" s="2">
         <v>45305</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>78</v>
       </c>
@@ -6122,8 +7297,12 @@
       <c r="F261" s="2">
         <v>45306</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>54</v>
       </c>
@@ -6142,8 +7321,12 @@
       <c r="F262" s="2">
         <v>45307</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>51</v>
       </c>
@@ -6162,8 +7345,12 @@
       <c r="F263" s="2">
         <v>45308</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>66</v>
       </c>
@@ -6182,8 +7369,12 @@
       <c r="F264" s="2">
         <v>45309</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>95</v>
       </c>
@@ -6202,8 +7393,12 @@
       <c r="F265" s="2">
         <v>45310</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>74</v>
       </c>
@@ -6222,8 +7417,12 @@
       <c r="F266" s="2">
         <v>45311</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>50</v>
       </c>
@@ -6242,8 +7441,12 @@
       <c r="F267" s="2">
         <v>45312</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>80</v>
       </c>
@@ -6262,8 +7465,12 @@
       <c r="F268" s="2">
         <v>45313</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>51</v>
       </c>
@@ -6282,8 +7489,12 @@
       <c r="F269" s="2">
         <v>45314</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>49</v>
       </c>
@@ -6302,8 +7513,12 @@
       <c r="F270" s="2">
         <v>45315</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>69</v>
       </c>
@@ -6322,8 +7537,12 @@
       <c r="F271" s="2">
         <v>45316</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>98</v>
       </c>
@@ -6342,8 +7561,12 @@
       <c r="F272" s="2">
         <v>45317</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>81</v>
       </c>
@@ -6362,8 +7585,12 @@
       <c r="F273" s="2">
         <v>45318</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>90</v>
       </c>
@@ -6382,8 +7609,12 @@
       <c r="F274" s="2">
         <v>45319</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>94</v>
       </c>
@@ -6402,8 +7633,12 @@
       <c r="F275" s="2">
         <v>45320</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>64</v>
       </c>
@@ -6422,8 +7657,12 @@
       <c r="F276" s="2">
         <v>45321</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>66</v>
       </c>
@@ -6442,8 +7681,20 @@
       <c r="F277" s="2">
         <v>45322</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <f>SUM(G247:G277)</f>
+        <v>122</v>
+      </c>
+      <c r="I277">
+        <f>SUM(A247:A277)</f>
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>83</v>
       </c>
@@ -6462,8 +7713,12 @@
       <c r="F278" s="2">
         <v>45323</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>101</v>
       </c>
@@ -6482,8 +7737,12 @@
       <c r="F279" s="2">
         <v>45324</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>78</v>
       </c>
@@ -6502,8 +7761,12 @@
       <c r="F280" s="2">
         <v>45325</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>92</v>
       </c>
@@ -6522,8 +7785,12 @@
       <c r="F281" s="2">
         <v>45326</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>108</v>
       </c>
@@ -6542,8 +7809,12 @@
       <c r="F282" s="2">
         <v>45327</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>75</v>
       </c>
@@ -6562,8 +7833,12 @@
       <c r="F283" s="2">
         <v>45328</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>77</v>
       </c>
@@ -6582,8 +7857,12 @@
       <c r="F284" s="2">
         <v>45329</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>78</v>
       </c>
@@ -6602,8 +7881,12 @@
       <c r="F285" s="2">
         <v>45330</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>100</v>
       </c>
@@ -6622,8 +7905,12 @@
       <c r="F286" s="2">
         <v>45331</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>87</v>
       </c>
@@ -6642,8 +7929,12 @@
       <c r="F287" s="2">
         <v>45332</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>99</v>
       </c>
@@ -6662,8 +7953,12 @@
       <c r="F288" s="2">
         <v>45333</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>113</v>
       </c>
@@ -6682,8 +7977,12 @@
       <c r="F289" s="2">
         <v>45334</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <f t="shared" ref="G289:G352" si="5">SUM(D289:E289)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>83</v>
       </c>
@@ -6702,8 +8001,12 @@
       <c r="F290" s="2">
         <v>45335</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>79</v>
       </c>
@@ -6722,8 +8025,12 @@
       <c r="F291" s="2">
         <v>45336</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>91</v>
       </c>
@@ -6742,8 +8049,12 @@
       <c r="F292" s="2">
         <v>45337</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>118</v>
       </c>
@@ -6762,8 +8073,12 @@
       <c r="F293" s="2">
         <v>45338</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>91</v>
       </c>
@@ -6782,8 +8097,12 @@
       <c r="F294" s="2">
         <v>45339</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>101</v>
       </c>
@@ -6802,8 +8121,12 @@
       <c r="F295" s="2">
         <v>45340</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>113</v>
       </c>
@@ -6822,8 +8145,12 @@
       <c r="F296" s="2">
         <v>45341</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>80</v>
       </c>
@@ -6842,8 +8169,12 @@
       <c r="F297" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>83</v>
       </c>
@@ -6862,8 +8193,12 @@
       <c r="F298" s="2">
         <v>45343</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>88</v>
       </c>
@@ -6882,8 +8217,12 @@
       <c r="F299" s="2">
         <v>45344</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>95</v>
       </c>
@@ -6902,8 +8241,12 @@
       <c r="F300" s="2">
         <v>45345</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>74</v>
       </c>
@@ -6922,8 +8265,12 @@
       <c r="F301" s="2">
         <v>45346</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>41</v>
       </c>
@@ -6942,8 +8289,12 @@
       <c r="F302" s="2">
         <v>45347</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>83</v>
       </c>
@@ -6962,8 +8313,12 @@
       <c r="F303" s="2">
         <v>45348</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>79</v>
       </c>
@@ -6982,8 +8337,12 @@
       <c r="F304" s="2">
         <v>45349</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>73</v>
       </c>
@@ -7002,8 +8361,12 @@
       <c r="F305" s="2">
         <v>45350</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>95</v>
       </c>
@@ -7022,8 +8385,20 @@
       <c r="F306" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <f>SUM(G278:G306)</f>
+        <v>128</v>
+      </c>
+      <c r="I306">
+        <f>SUM(A278:A306)</f>
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>103</v>
       </c>
@@ -7042,8 +8417,12 @@
       <c r="F307" s="2">
         <v>45352</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>92</v>
       </c>
@@ -7062,8 +8441,12 @@
       <c r="F308" s="2">
         <v>45353</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>95</v>
       </c>
@@ -7082,8 +8465,12 @@
       <c r="F309" s="2">
         <v>45354</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>119</v>
       </c>
@@ -7102,8 +8489,12 @@
       <c r="F310" s="2">
         <v>45355</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>79</v>
       </c>
@@ -7122,8 +8513,12 @@
       <c r="F311" s="2">
         <v>45356</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>83</v>
       </c>
@@ -7142,8 +8537,12 @@
       <c r="F312" s="2">
         <v>45357</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>96</v>
       </c>
@@ -7162,8 +8561,12 @@
       <c r="F313" s="2">
         <v>45358</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>110</v>
       </c>
@@ -7182,8 +8585,12 @@
       <c r="F314" s="2">
         <v>45359</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>87</v>
       </c>
@@ -7202,8 +8609,12 @@
       <c r="F315" s="2">
         <v>45360</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>100</v>
       </c>
@@ -7222,8 +8633,12 @@
       <c r="F316" s="2">
         <v>45361</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>122</v>
       </c>
@@ -7242,8 +8657,12 @@
       <c r="F317" s="2">
         <v>45362</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>89</v>
       </c>
@@ -7262,8 +8681,12 @@
       <c r="F318" s="2">
         <v>45363</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>87</v>
       </c>
@@ -7282,8 +8705,12 @@
       <c r="F319" s="2">
         <v>45364</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>95</v>
       </c>
@@ -7302,8 +8729,12 @@
       <c r="F320" s="2">
         <v>45365</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>120</v>
       </c>
@@ -7322,8 +8753,12 @@
       <c r="F321" s="2">
         <v>45366</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>95</v>
       </c>
@@ -7342,8 +8777,12 @@
       <c r="F322" s="2">
         <v>45367</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>109</v>
       </c>
@@ -7362,8 +8801,12 @@
       <c r="F323" s="2">
         <v>45368</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>126</v>
       </c>
@@ -7382,8 +8825,12 @@
       <c r="F324" s="2">
         <v>45369</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>79</v>
       </c>
@@ -7402,8 +8849,12 @@
       <c r="F325" s="2">
         <v>45370</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>87</v>
       </c>
@@ -7422,8 +8873,12 @@
       <c r="F326" s="2">
         <v>45371</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>96</v>
       </c>
@@ -7442,8 +8897,12 @@
       <c r="F327" s="2">
         <v>45372</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>114</v>
       </c>
@@ -7462,8 +8921,12 @@
       <c r="F328" s="2">
         <v>45373</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>90</v>
       </c>
@@ -7482,8 +8945,12 @@
       <c r="F329" s="2">
         <v>45374</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>105</v>
       </c>
@@ -7502,8 +8969,12 @@
       <c r="F330" s="2">
         <v>45375</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>123</v>
       </c>
@@ -7522,8 +8993,12 @@
       <c r="F331" s="2">
         <v>45376</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>90</v>
       </c>
@@ -7542,8 +9017,12 @@
       <c r="F332" s="2">
         <v>45377</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>93</v>
       </c>
@@ -7562,8 +9041,12 @@
       <c r="F333" s="2">
         <v>45378</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>77</v>
       </c>
@@ -7582,8 +9065,12 @@
       <c r="F334" s="2">
         <v>45379</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>113</v>
       </c>
@@ -7602,8 +9089,12 @@
       <c r="F335" s="2">
         <v>45380</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>97</v>
       </c>
@@ -7622,8 +9113,12 @@
       <c r="F336" s="2">
         <v>45381</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>114</v>
       </c>
@@ -7642,8 +9137,20 @@
       <c r="F337" s="2">
         <v>45382</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H337">
+        <f>SUM(G307:G337)</f>
+        <v>213</v>
+      </c>
+      <c r="I337">
+        <f>SUM(A307:A337)</f>
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>114</v>
       </c>
@@ -7662,8 +9169,12 @@
       <c r="F338" s="2">
         <v>45383</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>104</v>
       </c>
@@ -7682,8 +9193,12 @@
       <c r="F339" s="2">
         <v>45384</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>118</v>
       </c>
@@ -7702,8 +9217,12 @@
       <c r="F340" s="2">
         <v>45385</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>102</v>
       </c>
@@ -7722,8 +9241,12 @@
       <c r="F341" s="2">
         <v>45386</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>112</v>
       </c>
@@ -7742,8 +9265,12 @@
       <c r="F342" s="2">
         <v>45387</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>69</v>
       </c>
@@ -7762,8 +9289,12 @@
       <c r="F343" s="2">
         <v>45388</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G343">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>82</v>
       </c>
@@ -7782,8 +9313,12 @@
       <c r="F344" s="2">
         <v>45389</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>127</v>
       </c>
@@ -7802,8 +9337,12 @@
       <c r="F345" s="2">
         <v>45390</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>111</v>
       </c>
@@ -7822,8 +9361,12 @@
       <c r="F346" s="2">
         <v>45391</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>116</v>
       </c>
@@ -7842,8 +9385,12 @@
       <c r="F347" s="2">
         <v>45392</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G347">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>120</v>
       </c>
@@ -7862,8 +9409,12 @@
       <c r="F348" s="2">
         <v>45393</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G348">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>119</v>
       </c>
@@ -7882,8 +9433,12 @@
       <c r="F349" s="2">
         <v>45394</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G349">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>100</v>
       </c>
@@ -7902,8 +9457,12 @@
       <c r="F350" s="2">
         <v>45395</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G350">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>121</v>
       </c>
@@ -7922,8 +9481,12 @@
       <c r="F351" s="2">
         <v>45396</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G351">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>117</v>
       </c>
@@ -7942,8 +9505,12 @@
       <c r="F352" s="2">
         <v>45397</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>102</v>
       </c>
@@ -7962,8 +9529,12 @@
       <c r="F353" s="2">
         <v>45398</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353">
+        <f t="shared" ref="G353:G367" si="6">SUM(D353:E353)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>99</v>
       </c>
@@ -7982,8 +9553,12 @@
       <c r="F354" s="2">
         <v>45399</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>122</v>
       </c>
@@ -8002,8 +9577,12 @@
       <c r="F355" s="2">
         <v>45400</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>105</v>
       </c>
@@ -8022,8 +9601,12 @@
       <c r="F356" s="2">
         <v>45401</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>100</v>
       </c>
@@ -8042,8 +9625,12 @@
       <c r="F357" s="2">
         <v>45402</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>106</v>
       </c>
@@ -8062,8 +9649,12 @@
       <c r="F358" s="2">
         <v>45403</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>117</v>
       </c>
@@ -8082,8 +9673,12 @@
       <c r="F359" s="2">
         <v>45404</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>108</v>
       </c>
@@ -8102,8 +9697,12 @@
       <c r="F360" s="2">
         <v>45405</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>115</v>
       </c>
@@ -8122,8 +9721,12 @@
       <c r="F361" s="2">
         <v>45406</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>108</v>
       </c>
@@ -8142,8 +9745,12 @@
       <c r="F362" s="2">
         <v>45407</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>123</v>
       </c>
@@ -8162,8 +9769,12 @@
       <c r="F363" s="2">
         <v>45408</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>97</v>
       </c>
@@ -8182,8 +9793,12 @@
       <c r="F364" s="2">
         <v>45409</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>115</v>
       </c>
@@ -8202,8 +9817,12 @@
       <c r="F365" s="2">
         <v>45410</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>130</v>
       </c>
@@ -8222,8 +9841,12 @@
       <c r="F366" s="2">
         <v>45411</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>110</v>
       </c>
@@ -8242,6 +9865,623 @@
       <c r="F367" s="2">
         <v>45412</v>
       </c>
+      <c r="G367">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="H367">
+        <f>SUM(G338:G367)</f>
+        <v>463</v>
+      </c>
+      <c r="I367">
+        <f>SUM(A338:A367)</f>
+        <v>3289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2D9BFF-249D-482C-A5A3-F7BE249F273C}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E6:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45383</v>
+      </c>
+      <c r="B2">
+        <v>463</v>
+      </c>
+      <c r="C2">
+        <v>3289</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>3752</v>
+      </c>
+      <c r="E2" s="7">
+        <v>521</v>
+      </c>
+      <c r="F2">
+        <v>2648</v>
+      </c>
+      <c r="G2" s="7">
+        <f>SUM(B2,E2)</f>
+        <v>984</v>
+      </c>
+      <c r="H2">
+        <f>SUM(C2,F2)</f>
+        <v>5937</v>
+      </c>
+      <c r="I2" s="8">
+        <f>SUM(G2:H2)</f>
+        <v>6921</v>
+      </c>
+      <c r="J2" s="11">
+        <v>5859</v>
+      </c>
+      <c r="K2" s="9">
+        <v>158</v>
+      </c>
+      <c r="L2" s="11">
+        <v>521</v>
+      </c>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45352</v>
+      </c>
+      <c r="B3">
+        <v>213</v>
+      </c>
+      <c r="C3">
+        <v>3085</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">SUM(B3:C3)</f>
+        <v>3298</v>
+      </c>
+      <c r="E3" s="7">
+        <v>435</v>
+      </c>
+      <c r="F3">
+        <v>2596</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G13" si="1">SUM(B3,E3)</f>
+        <v>648</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="2">SUM(C3,F3)</f>
+        <v>5681</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I13" si="3">SUM(G3:H3)</f>
+        <v>6329</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6499</v>
+      </c>
+      <c r="K3" s="7">
+        <v>531</v>
+      </c>
+      <c r="L3" s="11">
+        <v>111</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45323</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>2558</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2686</v>
+      </c>
+      <c r="E4" s="7">
+        <v>386</v>
+      </c>
+      <c r="F4">
+        <v>2106</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>514</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>4664</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="3"/>
+        <v>5178</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5735</v>
+      </c>
+      <c r="K4" s="7">
+        <v>493</v>
+      </c>
+      <c r="L4" s="11">
+        <v>70</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45292</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>2445</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2567</v>
+      </c>
+      <c r="E5" s="7">
+        <v>347</v>
+      </c>
+      <c r="F5">
+        <v>2031</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4476</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="J5" s="11">
+        <v>5336</v>
+      </c>
+      <c r="K5" s="7">
+        <v>445</v>
+      </c>
+      <c r="L5" s="11">
+        <v>62</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B6">
+        <v>176</v>
+      </c>
+      <c r="C6">
+        <v>2716</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2892</v>
+      </c>
+      <c r="E6">
+        <v>373</v>
+      </c>
+      <c r="F6">
+        <v>2187</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>549</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4903</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
+        <v>5452</v>
+      </c>
+      <c r="J6" s="11">
+        <v>6839</v>
+      </c>
+      <c r="K6" s="7">
+        <v>600</v>
+      </c>
+      <c r="L6">
+        <v>116</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B7">
+        <v>147</v>
+      </c>
+      <c r="C7">
+        <v>2583</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="E7">
+        <v>352</v>
+      </c>
+      <c r="F7">
+        <v>2137</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>4720</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="3"/>
+        <v>5219</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4901</v>
+      </c>
+      <c r="K7" s="7">
+        <v>393</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B8">
+        <v>569</v>
+      </c>
+      <c r="C8">
+        <v>3695</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4264</v>
+      </c>
+      <c r="E8">
+        <v>580</v>
+      </c>
+      <c r="F8">
+        <v>2766</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>1149</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>6461</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="3"/>
+        <v>7610</v>
+      </c>
+      <c r="J8" s="11">
+        <v>6988</v>
+      </c>
+      <c r="K8" s="7">
+        <v>735</v>
+      </c>
+      <c r="L8">
+        <v>402</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>45170</v>
+      </c>
+      <c r="B9">
+        <v>602</v>
+      </c>
+      <c r="C9">
+        <v>2716</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3318</v>
+      </c>
+      <c r="E9">
+        <v>638</v>
+      </c>
+      <c r="F9">
+        <v>2739</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>1240</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>5455</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="3"/>
+        <v>6695</v>
+      </c>
+      <c r="J9" s="11">
+        <v>6888</v>
+      </c>
+      <c r="K9" s="7">
+        <v>779</v>
+      </c>
+      <c r="L9">
+        <v>431</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B10">
+        <v>592</v>
+      </c>
+      <c r="C10">
+        <v>3522</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4114</v>
+      </c>
+      <c r="E10">
+        <v>599</v>
+      </c>
+      <c r="F10">
+        <v>2512</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>1191</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>6034</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="3"/>
+        <v>7225</v>
+      </c>
+      <c r="J10" s="11">
+        <v>6462</v>
+      </c>
+      <c r="K10" s="7">
+        <v>717</v>
+      </c>
+      <c r="L10" s="11">
+        <v>440</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>45108</v>
+      </c>
+      <c r="B11">
+        <v>554</v>
+      </c>
+      <c r="C11">
+        <v>3406</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3960</v>
+      </c>
+      <c r="E11">
+        <v>660</v>
+      </c>
+      <c r="F11">
+        <v>2450</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>1214</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>5856</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="3"/>
+        <v>7070</v>
+      </c>
+      <c r="J11" s="11">
+        <v>6335</v>
+      </c>
+      <c r="K11" s="9">
+        <v>772</v>
+      </c>
+      <c r="L11" s="11">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B12">
+        <v>518</v>
+      </c>
+      <c r="C12">
+        <v>3268</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3786</v>
+      </c>
+      <c r="E12">
+        <v>633</v>
+      </c>
+      <c r="F12">
+        <v>2387</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>1151</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>5655</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="3"/>
+        <v>6806</v>
+      </c>
+      <c r="J12" s="11">
+        <v>6132</v>
+      </c>
+      <c r="K12" s="7">
+        <v>724</v>
+      </c>
+      <c r="L12" s="11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B13">
+        <v>565</v>
+      </c>
+      <c r="C13">
+        <v>3419</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3984</v>
+      </c>
+      <c r="E13">
+        <v>583</v>
+      </c>
+      <c r="F13">
+        <v>2537</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>1148</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>5956</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
+        <v>7104</v>
+      </c>
+      <c r="J13" s="11">
+        <v>6386</v>
+      </c>
+      <c r="K13" s="7">
+        <v>713</v>
+      </c>
+      <c r="L13" s="11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
